--- a/sheets/MyExel.xlsx
+++ b/sheets/MyExel.xlsx
@@ -19,10 +19,16 @@
     <x:t>1</x:t>
   </x:si>
   <x:si>
+    <x:t>2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3</x:t>
+  </x:si>
+  <x:si>
     <x:t/>
   </x:si>
   <x:si>
-    <x:t>4</x:t>
+    <x:t>0</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -373,13 +379,13 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J20"/>
+  <x:dimension ref="A1:N13"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:10">
+    <x:row r="1" spans="1:14">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -390,633 +396,565 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D1" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E1" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F1" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I1" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="J1" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:10">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="K1" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="L1" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="M1" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="N1" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:14">
       <x:c r="A2" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="I2" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="J2" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="K2" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="L2" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="M2" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="N2" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:14">
+      <x:c r="A3" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="C2" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D2" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E2" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F2" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G2" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H2" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I2" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J2" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:10">
-      <x:c r="A3" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G3" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H3" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I3" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="J3" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:10">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="K3" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="L3" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="M3" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="N3" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:14">
       <x:c r="A4" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G4" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H4" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I4" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="J4" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:10">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="K4" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="L4" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="M4" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="N4" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:14">
       <x:c r="A5" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G5" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H5" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I5" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="J5" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:10">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="K5" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="L5" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="M5" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="N5" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:14">
       <x:c r="A6" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F6" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G6" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H6" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I6" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="J6" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:10">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="K6" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="L6" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="M6" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="N6" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:14">
       <x:c r="A7" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F7" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G7" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H7" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I7" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="J7" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:10">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="K7" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="L7" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="M7" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="N7" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:14">
       <x:c r="A8" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G8" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H8" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I8" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="J8" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:10">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="K8" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="L8" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="M8" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="N8" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:14">
       <x:c r="A9" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G9" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H9" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I9" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="J9" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:10">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="K9" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="L9" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="M9" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="N9" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:14">
       <x:c r="A10" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F10" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G10" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H10" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I10" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="J10" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:10">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="K10" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="L10" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="M10" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="N10" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:14">
       <x:c r="A11" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F11" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G11" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H11" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I11" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="J11" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:10">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="K11" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="L11" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="M11" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="N11" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:14">
       <x:c r="A12" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F12" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G12" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H12" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I12" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="J12" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:10">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="K12" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="L12" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="M12" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="N12" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:14">
       <x:c r="A13" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F13" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G13" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H13" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I13" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="J13" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:10">
-      <x:c r="A14" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B14" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C14" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D14" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E14" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F14" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G14" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H14" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I14" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J14" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:10">
-      <x:c r="A15" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B15" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C15" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D15" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E15" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F15" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G15" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H15" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I15" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J15" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:10">
-      <x:c r="A16" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B16" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C16" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D16" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E16" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F16" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G16" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H16" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I16" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J16" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:10">
-      <x:c r="A17" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B17" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C17" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D17" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E17" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F17" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G17" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H17" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I17" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J17" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:10">
-      <x:c r="A18" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B18" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C18" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D18" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E18" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F18" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G18" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H18" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I18" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J18" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:10">
-      <x:c r="A19" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B19" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C19" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D19" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E19" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F19" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G19" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H19" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I19" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J19" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:10">
-      <x:c r="A20" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B20" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C20" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D20" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E20" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F20" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G20" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H20" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I20" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J20" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="K13" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="L13" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="M13" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="N13" s="0" t="s">
+        <x:v>3</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
